--- a/Lab1/Lab1.3/Lab1.3.xlsx
+++ b/Lab1/Lab1.3/Lab1.3.xlsx
@@ -709,7 +709,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -795,6 +795,9 @@
     </xf>
     <xf borderId="25" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="25" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="9" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
@@ -5192,21 +5195,21 @@
       <c r="A6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="44" t="s">
         <v>82</v>
       </c>
-      <c r="C6" s="42"/>
-      <c r="D6" s="43"/>
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="44" t="s">
         <v>82</v>
       </c>
-      <c r="C7" s="42"/>
-      <c r="D7" s="43"/>
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="6" t="s">
@@ -5222,11 +5225,11 @@
       <c r="A9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="42" t="s">
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="44" t="s">
         <v>82</v>
       </c>
-      <c r="C9" s="42"/>
-      <c r="D9" s="43"/>
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="6" t="s">
@@ -5262,11 +5265,11 @@
       <c r="A13" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="42" t="s">
+      <c r="B13" s="42"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="44" t="s">
         <v>82</v>
       </c>
-      <c r="C13" s="42"/>
-      <c r="D13" s="43"/>
     </row>
     <row r="14" ht="14.25" customHeight="1">
       <c r="A14" s="6" t="s">
@@ -5302,11 +5305,11 @@
       <c r="A17" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="42" t="s">
+      <c r="B17" s="42"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="44" t="s">
         <v>82</v>
       </c>
-      <c r="C17" s="42"/>
-      <c r="D17" s="43"/>
     </row>
     <row r="18" ht="14.25" customHeight="1">
       <c r="A18" s="6" t="s">
@@ -5332,11 +5335,11 @@
       <c r="A20" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="42" t="s">
+      <c r="B20" s="42"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="44" t="s">
         <v>82</v>
       </c>
-      <c r="C20" s="42"/>
-      <c r="D20" s="43"/>
     </row>
     <row r="21" ht="14.25" customHeight="1">
       <c r="A21" s="9" t="s">
@@ -5412,11 +5415,11 @@
       <c r="A28" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="B28" s="42" t="s">
+      <c r="B28" s="42"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="44" t="s">
         <v>82</v>
       </c>
-      <c r="C28" s="42"/>
-      <c r="D28" s="43"/>
     </row>
     <row r="29" ht="14.25" customHeight="1">
       <c r="A29" s="9" t="s">
@@ -5452,21 +5455,21 @@
       <c r="A32" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="B32" s="42" t="s">
+      <c r="B32" s="42"/>
+      <c r="C32" s="42"/>
+      <c r="D32" s="44" t="s">
         <v>82</v>
       </c>
-      <c r="C32" s="42"/>
-      <c r="D32" s="43"/>
     </row>
     <row r="33" ht="14.25" customHeight="1">
       <c r="A33" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B33" s="42" t="s">
+      <c r="B33" s="42"/>
+      <c r="C33" s="42"/>
+      <c r="D33" s="44" t="s">
         <v>82</v>
       </c>
-      <c r="C33" s="42"/>
-      <c r="D33" s="43"/>
     </row>
     <row r="34" ht="14.25" customHeight="1">
       <c r="A34" s="9" t="s">
@@ -5492,11 +5495,11 @@
       <c r="A36" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="B36" s="44" t="s">
+      <c r="B36" s="45" t="s">
         <v>82</v>
       </c>
-      <c r="C36" s="44"/>
-      <c r="D36" s="45"/>
+      <c r="C36" s="45"/>
+      <c r="D36" s="46"/>
     </row>
     <row r="37" ht="14.25" customHeight="1"/>
     <row r="38" ht="14.25" customHeight="1"/>
@@ -6483,13 +6486,13 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="48" t="s">
         <v>83</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="49" t="s">
         <v>84</v>
       </c>
     </row>
@@ -6500,7 +6503,7 @@
       <c r="B2" s="5">
         <v>5.0</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="50" t="s">
         <v>85</v>
       </c>
     </row>
@@ -6511,7 +6514,7 @@
       <c r="B3" s="7">
         <v>1.0</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="51" t="s">
         <v>85</v>
       </c>
     </row>
@@ -6522,7 +6525,7 @@
       <c r="B4" s="7">
         <v>1.0</v>
       </c>
-      <c r="C4" s="50" t="s">
+      <c r="C4" s="51" t="s">
         <v>85</v>
       </c>
     </row>
@@ -6533,10 +6536,10 @@
       <c r="B5" s="7">
         <v>5.0</v>
       </c>
-      <c r="C5" s="50" t="s">
+      <c r="C5" s="51" t="s">
         <v>86</v>
       </c>
-      <c r="E5" s="51"/>
+      <c r="E5" s="52"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="6" t="s">
@@ -6545,7 +6548,7 @@
       <c r="B6" s="7">
         <v>4.0</v>
       </c>
-      <c r="C6" s="50" t="s">
+      <c r="C6" s="51" t="s">
         <v>87</v>
       </c>
     </row>
@@ -6556,7 +6559,7 @@
       <c r="B7" s="7">
         <v>2.0</v>
       </c>
-      <c r="C7" s="50" t="s">
+      <c r="C7" s="51" t="s">
         <v>88</v>
       </c>
     </row>
@@ -6567,7 +6570,7 @@
       <c r="B8" s="7">
         <v>3.0</v>
       </c>
-      <c r="C8" s="50" t="s">
+      <c r="C8" s="51" t="s">
         <v>86</v>
       </c>
     </row>
@@ -6578,7 +6581,7 @@
       <c r="B9" s="7">
         <v>3.0</v>
       </c>
-      <c r="C9" s="50" t="s">
+      <c r="C9" s="51" t="s">
         <v>87</v>
       </c>
     </row>
@@ -6589,7 +6592,7 @@
       <c r="B10" s="7">
         <v>1.0</v>
       </c>
-      <c r="C10" s="50" t="s">
+      <c r="C10" s="51" t="s">
         <v>86</v>
       </c>
     </row>
@@ -6600,7 +6603,7 @@
       <c r="B11" s="7">
         <v>1.0</v>
       </c>
-      <c r="C11" s="50" t="s">
+      <c r="C11" s="51" t="s">
         <v>86</v>
       </c>
     </row>
@@ -6611,7 +6614,7 @@
       <c r="B12" s="7">
         <v>3.0</v>
       </c>
-      <c r="C12" s="50" t="s">
+      <c r="C12" s="51" t="s">
         <v>86</v>
       </c>
     </row>
@@ -6622,7 +6625,7 @@
       <c r="B13" s="7">
         <v>3.0</v>
       </c>
-      <c r="C13" s="50" t="s">
+      <c r="C13" s="51" t="s">
         <v>87</v>
       </c>
     </row>
@@ -6633,7 +6636,7 @@
       <c r="B14" s="7">
         <v>1.0</v>
       </c>
-      <c r="C14" s="50" t="s">
+      <c r="C14" s="51" t="s">
         <v>86</v>
       </c>
     </row>
@@ -6644,7 +6647,7 @@
       <c r="B15" s="7">
         <v>1.0</v>
       </c>
-      <c r="C15" s="50" t="s">
+      <c r="C15" s="51" t="s">
         <v>86</v>
       </c>
     </row>
@@ -6655,7 +6658,7 @@
       <c r="B16" s="7">
         <v>2.0</v>
       </c>
-      <c r="C16" s="50" t="s">
+      <c r="C16" s="51" t="s">
         <v>86</v>
       </c>
     </row>
@@ -6666,7 +6669,7 @@
       <c r="B17" s="7">
         <v>3.0</v>
       </c>
-      <c r="C17" s="50" t="s">
+      <c r="C17" s="51" t="s">
         <v>87</v>
       </c>
     </row>
@@ -6677,7 +6680,7 @@
       <c r="B18" s="7">
         <v>1.0</v>
       </c>
-      <c r="C18" s="50" t="s">
+      <c r="C18" s="51" t="s">
         <v>86</v>
       </c>
     </row>
@@ -6688,7 +6691,7 @@
       <c r="B19" s="7">
         <v>1.0</v>
       </c>
-      <c r="C19" s="50" t="s">
+      <c r="C19" s="51" t="s">
         <v>86</v>
       </c>
     </row>
@@ -6699,7 +6702,7 @@
       <c r="B20" s="7">
         <v>5.0</v>
       </c>
-      <c r="C20" s="50" t="s">
+      <c r="C20" s="51" t="s">
         <v>87</v>
       </c>
     </row>
@@ -6710,7 +6713,7 @@
       <c r="B21" s="7">
         <v>2.0</v>
       </c>
-      <c r="C21" s="50" t="s">
+      <c r="C21" s="51" t="s">
         <v>86</v>
       </c>
     </row>
@@ -6721,7 +6724,7 @@
       <c r="B22" s="7">
         <v>2.0</v>
       </c>
-      <c r="C22" s="50" t="s">
+      <c r="C22" s="51" t="s">
         <v>86</v>
       </c>
     </row>
@@ -6732,7 +6735,7 @@
       <c r="B23" s="7">
         <v>5.0</v>
       </c>
-      <c r="C23" s="50" t="s">
+      <c r="C23" s="51" t="s">
         <v>88</v>
       </c>
     </row>
@@ -6743,7 +6746,7 @@
       <c r="B24" s="7">
         <v>5.0</v>
       </c>
-      <c r="C24" s="50" t="s">
+      <c r="C24" s="51" t="s">
         <v>88</v>
       </c>
     </row>
@@ -6754,7 +6757,7 @@
       <c r="B25" s="7">
         <v>5.0</v>
       </c>
-      <c r="C25" s="50" t="s">
+      <c r="C25" s="51" t="s">
         <v>88</v>
       </c>
     </row>
@@ -6765,7 +6768,7 @@
       <c r="B26" s="7">
         <v>5.0</v>
       </c>
-      <c r="C26" s="50" t="s">
+      <c r="C26" s="51" t="s">
         <v>88</v>
       </c>
     </row>
@@ -6776,7 +6779,7 @@
       <c r="B27" s="7">
         <v>5.0</v>
       </c>
-      <c r="C27" s="50" t="s">
+      <c r="C27" s="51" t="s">
         <v>88</v>
       </c>
     </row>
@@ -6787,7 +6790,7 @@
       <c r="B28" s="7">
         <v>5.0</v>
       </c>
-      <c r="C28" s="50" t="s">
+      <c r="C28" s="51" t="s">
         <v>88</v>
       </c>
     </row>
@@ -6798,7 +6801,7 @@
       <c r="B29" s="7">
         <v>5.0</v>
       </c>
-      <c r="C29" s="50" t="s">
+      <c r="C29" s="51" t="s">
         <v>88</v>
       </c>
     </row>
@@ -6809,7 +6812,7 @@
       <c r="B30" s="7">
         <v>5.0</v>
       </c>
-      <c r="C30" s="50" t="s">
+      <c r="C30" s="51" t="s">
         <v>88</v>
       </c>
     </row>
@@ -6820,7 +6823,7 @@
       <c r="B31" s="7">
         <v>5.0</v>
       </c>
-      <c r="C31" s="50" t="s">
+      <c r="C31" s="51" t="s">
         <v>88</v>
       </c>
     </row>
@@ -6831,7 +6834,7 @@
       <c r="B32" s="7">
         <v>5.0</v>
       </c>
-      <c r="C32" s="50" t="s">
+      <c r="C32" s="51" t="s">
         <v>88</v>
       </c>
     </row>
@@ -6842,7 +6845,7 @@
       <c r="B33" s="7">
         <v>5.0</v>
       </c>
-      <c r="C33" s="50" t="s">
+      <c r="C33" s="51" t="s">
         <v>86</v>
       </c>
     </row>
@@ -6853,7 +6856,7 @@
       <c r="B34" s="7">
         <v>5.0</v>
       </c>
-      <c r="C34" s="50" t="s">
+      <c r="C34" s="51" t="s">
         <v>86</v>
       </c>
     </row>
@@ -6864,7 +6867,7 @@
       <c r="B35" s="7">
         <v>3.0</v>
       </c>
-      <c r="C35" s="50" t="s">
+      <c r="C35" s="51" t="s">
         <v>88</v>
       </c>
     </row>
@@ -6872,10 +6875,10 @@
       <c r="A36" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="B36" s="52">
+      <c r="B36" s="53">
         <v>3.0</v>
       </c>
-      <c r="C36" s="53" t="s">
+      <c r="C36" s="54" t="s">
         <v>86</v>
       </c>
     </row>
